--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Sema4a-Plxnb1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Sema4a-Plxnb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.35784068446235</v>
+        <v>4.860268666666666</v>
       </c>
       <c r="H2">
-        <v>0.35784068446235</v>
+        <v>14.580806</v>
       </c>
       <c r="I2">
-        <v>0.00305879617165666</v>
+        <v>0.03812861294563102</v>
       </c>
       <c r="J2">
-        <v>0.00305879617165666</v>
+        <v>0.03812861294563102</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.234700585092332</v>
+        <v>0.5527786666666666</v>
       </c>
       <c r="N2">
-        <v>0.234700585092332</v>
+        <v>1.658336</v>
       </c>
       <c r="O2">
-        <v>0.04757093056256453</v>
+        <v>0.09524664485857044</v>
       </c>
       <c r="P2">
-        <v>0.04757093056256453</v>
+        <v>0.09524664485857044</v>
       </c>
       <c r="Q2">
-        <v>0.0839854180131541</v>
+        <v>2.686652833201777</v>
       </c>
       <c r="R2">
-        <v>0.0839854180131541</v>
+        <v>24.179875498816</v>
       </c>
       <c r="S2">
-        <v>0.0001455097802869172</v>
+        <v>0.00363162245618241</v>
       </c>
       <c r="T2">
-        <v>0.0001455097802869172</v>
+        <v>0.00363162245618241</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.35784068446235</v>
+        <v>4.860268666666666</v>
       </c>
       <c r="H3">
-        <v>0.35784068446235</v>
+        <v>14.580806</v>
       </c>
       <c r="I3">
-        <v>0.00305879617165666</v>
+        <v>0.03812861294563102</v>
       </c>
       <c r="J3">
-        <v>0.00305879617165666</v>
+        <v>0.03812861294563102</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.354061574177523</v>
+        <v>0.5095113333333333</v>
       </c>
       <c r="N3">
-        <v>0.354061574177523</v>
+        <v>1.528534</v>
       </c>
       <c r="O3">
-        <v>0.07176393937597186</v>
+        <v>0.08779145785428895</v>
       </c>
       <c r="P3">
-        <v>0.07176393937597186</v>
+        <v>0.08779145785428895</v>
       </c>
       <c r="Q3">
-        <v>0.1266976360455019</v>
+        <v>2.476361968711555</v>
       </c>
       <c r="R3">
-        <v>0.1266976360455019</v>
+        <v>22.287257718404</v>
       </c>
       <c r="S3">
-        <v>0.0002195112630262234</v>
+        <v>0.003347366516458862</v>
       </c>
       <c r="T3">
-        <v>0.0002195112630262234</v>
+        <v>0.003347366516458862</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.35784068446235</v>
+        <v>4.860268666666666</v>
       </c>
       <c r="H4">
-        <v>0.35784068446235</v>
+        <v>14.580806</v>
       </c>
       <c r="I4">
-        <v>0.00305879617165666</v>
+        <v>0.03812861294563102</v>
       </c>
       <c r="J4">
-        <v>0.00305879617165666</v>
+        <v>0.03812861294563102</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>4.34493542277886</v>
+        <v>0.02088</v>
       </c>
       <c r="N4">
-        <v>4.34493542277886</v>
+        <v>0.06264</v>
       </c>
       <c r="O4">
-        <v>0.8806651300614636</v>
+        <v>0.00359773280803218</v>
       </c>
       <c r="P4">
-        <v>0.8806651300614636</v>
+        <v>0.00359773280803218</v>
       </c>
       <c r="Q4">
-        <v>1.554794665631898</v>
+        <v>0.10148240976</v>
       </c>
       <c r="R4">
-        <v>1.554794665631898</v>
+        <v>0.9133416878399999</v>
       </c>
       <c r="S4">
-        <v>0.00269377512834352</v>
+        <v>0.0001371765617192572</v>
       </c>
       <c r="T4">
-        <v>0.00269377512834352</v>
+        <v>0.0001371765617192572</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>14.1485024841383</v>
+        <v>4.860268666666666</v>
       </c>
       <c r="H5">
-        <v>14.1485024841383</v>
+        <v>14.580806</v>
       </c>
       <c r="I5">
-        <v>0.1209403712665612</v>
+        <v>0.03812861294563102</v>
       </c>
       <c r="J5">
-        <v>0.1209403712665612</v>
+        <v>0.03812861294563102</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.234700585092332</v>
+        <v>0.06922099999999999</v>
       </c>
       <c r="N5">
-        <v>0.234700585092332</v>
+        <v>0.207663</v>
       </c>
       <c r="O5">
-        <v>0.04757093056256453</v>
+        <v>0.0119271390184289</v>
       </c>
       <c r="P5">
-        <v>0.04757093056256453</v>
+        <v>0.0119271390184289</v>
       </c>
       <c r="Q5">
-        <v>3.320661811207572</v>
+        <v>0.3364326573753333</v>
       </c>
       <c r="R5">
-        <v>3.320661811207572</v>
+        <v>3.027893916377999</v>
       </c>
       <c r="S5">
-        <v>0.005753246003732356</v>
+        <v>0.0004547652671824092</v>
       </c>
       <c r="T5">
-        <v>0.005753246003732356</v>
+        <v>0.0004547652671824092</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,55 +782,55 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>14.1485024841383</v>
+        <v>4.860268666666666</v>
       </c>
       <c r="H6">
-        <v>14.1485024841383</v>
+        <v>14.580806</v>
       </c>
       <c r="I6">
-        <v>0.1209403712665612</v>
+        <v>0.03812861294563102</v>
       </c>
       <c r="J6">
-        <v>0.1209403712665612</v>
+        <v>0.03812861294563102</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.354061574177523</v>
+        <v>4.651264</v>
       </c>
       <c r="N6">
-        <v>0.354061574177523</v>
+        <v>13.953792</v>
       </c>
       <c r="O6">
-        <v>0.07176393937597186</v>
+        <v>0.8014370254606795</v>
       </c>
       <c r="P6">
-        <v>0.07176393937597186</v>
+        <v>0.8014370254606795</v>
       </c>
       <c r="Q6">
-        <v>5.009441061788601</v>
+        <v>22.60639267959467</v>
       </c>
       <c r="R6">
-        <v>5.009441061788601</v>
+        <v>203.457534116352</v>
       </c>
       <c r="S6">
-        <v>0.008679157471681026</v>
+        <v>0.03055768214408808</v>
       </c>
       <c r="T6">
-        <v>0.008679157471681026</v>
+        <v>0.03055768214408808</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,60 +844,60 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>14.1485024841383</v>
+        <v>14.24352166666667</v>
       </c>
       <c r="H7">
-        <v>14.1485024841383</v>
+        <v>42.730565</v>
       </c>
       <c r="I7">
-        <v>0.1209403712665612</v>
+        <v>0.1117398567564185</v>
       </c>
       <c r="J7">
-        <v>0.1209403712665612</v>
+        <v>0.1117398567564185</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.34493542277886</v>
+        <v>0.5527786666666666</v>
       </c>
       <c r="N7">
-        <v>4.34493542277886</v>
+        <v>1.658336</v>
       </c>
       <c r="O7">
-        <v>0.8806651300614636</v>
+        <v>0.09524664485857044</v>
       </c>
       <c r="P7">
-        <v>0.8806651300614636</v>
+        <v>0.09524664485857044</v>
       </c>
       <c r="Q7">
-        <v>61.4743296226072</v>
+        <v>7.873514915537777</v>
       </c>
       <c r="R7">
-        <v>61.4743296226072</v>
+        <v>70.86163423984</v>
       </c>
       <c r="S7">
-        <v>0.1065079677911478</v>
+        <v>0.01064284645302613</v>
       </c>
       <c r="T7">
-        <v>0.1065079677911478</v>
+        <v>0.01064284645302613</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,122 +906,122 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>17.8260300553878</v>
+        <v>14.24352166666667</v>
       </c>
       <c r="H8">
-        <v>17.8260300553878</v>
+        <v>42.730565</v>
       </c>
       <c r="I8">
-        <v>0.1523756097526515</v>
+        <v>0.1117398567564185</v>
       </c>
       <c r="J8">
-        <v>0.1523756097526515</v>
+        <v>0.1117398567564185</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.234700585092332</v>
+        <v>0.5095113333333333</v>
       </c>
       <c r="N8">
-        <v>0.234700585092332</v>
+        <v>1.528534</v>
       </c>
       <c r="O8">
-        <v>0.04757093056256453</v>
+        <v>0.08779145785428895</v>
       </c>
       <c r="P8">
-        <v>0.04757093056256453</v>
+        <v>0.08779145785428895</v>
       </c>
       <c r="Q8">
-        <v>4.183779683873012</v>
+        <v>7.257235715745555</v>
       </c>
       <c r="R8">
-        <v>4.183779683873012</v>
+        <v>65.31512144171001</v>
       </c>
       <c r="S8">
-        <v>0.007248649550971818</v>
+        <v>0.009809804925075402</v>
       </c>
       <c r="T8">
-        <v>0.007248649550971818</v>
+        <v>0.009809804925075402</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>17.8260300553878</v>
+        <v>14.24352166666667</v>
       </c>
       <c r="H9">
-        <v>17.8260300553878</v>
+        <v>42.730565</v>
       </c>
       <c r="I9">
-        <v>0.1523756097526515</v>
+        <v>0.1117398567564185</v>
       </c>
       <c r="J9">
-        <v>0.1523756097526515</v>
+        <v>0.1117398567564185</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.354061574177523</v>
+        <v>0.02088</v>
       </c>
       <c r="N9">
-        <v>0.354061574177523</v>
+        <v>0.06264</v>
       </c>
       <c r="O9">
-        <v>0.07176393937597186</v>
+        <v>0.00359773280803218</v>
       </c>
       <c r="P9">
-        <v>0.07176393937597186</v>
+        <v>0.00359773280803218</v>
       </c>
       <c r="Q9">
-        <v>6.311512262746442</v>
+        <v>0.2974047324</v>
       </c>
       <c r="R9">
-        <v>6.311512262746442</v>
+        <v>2.6766425916</v>
       </c>
       <c r="S9">
-        <v>0.01093507402066603</v>
+        <v>0.0004020101486173832</v>
       </c>
       <c r="T9">
-        <v>0.01093507402066603</v>
+        <v>0.0004020101486173832</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,60 +1030,60 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>17.8260300553878</v>
+        <v>14.24352166666667</v>
       </c>
       <c r="H10">
-        <v>17.8260300553878</v>
+        <v>42.730565</v>
       </c>
       <c r="I10">
-        <v>0.1523756097526515</v>
+        <v>0.1117398567564185</v>
       </c>
       <c r="J10">
-        <v>0.1523756097526515</v>
+        <v>0.1117398567564185</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>4.34493542277886</v>
+        <v>0.06922099999999999</v>
       </c>
       <c r="N10">
-        <v>4.34493542277886</v>
+        <v>0.207663</v>
       </c>
       <c r="O10">
-        <v>0.8806651300614636</v>
+        <v>0.0119271390184289</v>
       </c>
       <c r="P10">
-        <v>0.8806651300614636</v>
+        <v>0.0119271390184289</v>
       </c>
       <c r="Q10">
-        <v>77.45294943517506</v>
+        <v>0.9859508132883331</v>
       </c>
       <c r="R10">
-        <v>77.45294943517506</v>
+        <v>8.873557319594999</v>
       </c>
       <c r="S10">
-        <v>0.1341918861810137</v>
+        <v>0.001332736805433136</v>
       </c>
       <c r="T10">
-        <v>0.1341918861810137</v>
+        <v>0.001332736805433136</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>23.2225349300107</v>
+        <v>14.24352166666667</v>
       </c>
       <c r="H11">
-        <v>23.2225349300107</v>
+        <v>42.730565</v>
       </c>
       <c r="I11">
-        <v>0.1985045413346606</v>
+        <v>0.1117398567564185</v>
       </c>
       <c r="J11">
-        <v>0.1985045413346606</v>
+        <v>0.1117398567564185</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.234700585092332</v>
+        <v>4.651264</v>
       </c>
       <c r="N11">
-        <v>0.234700585092332</v>
+        <v>13.953792</v>
       </c>
       <c r="O11">
-        <v>0.04757093056256453</v>
+        <v>0.8014370254606795</v>
       </c>
       <c r="P11">
-        <v>0.04757093056256453</v>
+        <v>0.8014370254606795</v>
       </c>
       <c r="Q11">
-        <v>5.450342535400628</v>
+        <v>66.25037956138667</v>
       </c>
       <c r="R11">
-        <v>5.450342535400628</v>
+        <v>596.25341605248</v>
       </c>
       <c r="S11">
-        <v>0.00944304575218486</v>
+        <v>0.08955245842426648</v>
       </c>
       <c r="T11">
-        <v>0.00944304575218486</v>
+        <v>0.08955245842426648</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>23.2225349300107</v>
+        <v>19.98160133333333</v>
       </c>
       <c r="H12">
-        <v>23.2225349300107</v>
+        <v>59.944804</v>
       </c>
       <c r="I12">
-        <v>0.1985045413346606</v>
+        <v>0.1567548618243542</v>
       </c>
       <c r="J12">
-        <v>0.1985045413346606</v>
+        <v>0.1567548618243542</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.354061574177523</v>
+        <v>0.5527786666666666</v>
       </c>
       <c r="N12">
-        <v>0.354061574177523</v>
+        <v>1.658336</v>
       </c>
       <c r="O12">
-        <v>0.07176393937597186</v>
+        <v>0.09524664485857044</v>
       </c>
       <c r="P12">
-        <v>0.07176393937597186</v>
+        <v>0.09524664485857044</v>
       </c>
       <c r="Q12">
-        <v>8.222207273712101</v>
+        <v>11.04540294290489</v>
       </c>
       <c r="R12">
-        <v>8.222207273712101</v>
+        <v>99.408626486144</v>
       </c>
       <c r="S12">
-        <v>0.01424546787019568</v>
+        <v>0.01493037465403855</v>
       </c>
       <c r="T12">
-        <v>0.01424546787019568</v>
+        <v>0.01493037465403855</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,60 +1216,60 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>23.2225349300107</v>
+        <v>19.98160133333333</v>
       </c>
       <c r="H13">
-        <v>23.2225349300107</v>
+        <v>59.944804</v>
       </c>
       <c r="I13">
-        <v>0.1985045413346606</v>
+        <v>0.1567548618243542</v>
       </c>
       <c r="J13">
-        <v>0.1985045413346606</v>
+        <v>0.1567548618243542</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.34493542277886</v>
+        <v>0.5095113333333333</v>
       </c>
       <c r="N13">
-        <v>4.34493542277886</v>
+        <v>1.528534</v>
       </c>
       <c r="O13">
-        <v>0.8806651300614636</v>
+        <v>0.08779145785428895</v>
       </c>
       <c r="P13">
-        <v>0.8806651300614636</v>
+        <v>0.08779145785428895</v>
       </c>
       <c r="Q13">
-        <v>100.9004146241229</v>
+        <v>10.18085233748178</v>
       </c>
       <c r="R13">
-        <v>100.9004146241229</v>
+        <v>91.627671037336</v>
       </c>
       <c r="S13">
-        <v>0.1748160277122801</v>
+        <v>0.01376173784530768</v>
       </c>
       <c r="T13">
-        <v>0.1748160277122801</v>
+        <v>0.01376173784530768</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1278,60 +1278,60 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>55.8676531046233</v>
+        <v>19.98160133333333</v>
       </c>
       <c r="H14">
-        <v>55.8676531046233</v>
+        <v>59.944804</v>
       </c>
       <c r="I14">
-        <v>0.477552639640795</v>
+        <v>0.1567548618243542</v>
       </c>
       <c r="J14">
-        <v>0.477552639640795</v>
+        <v>0.1567548618243542</v>
       </c>
       <c r="K14">
         <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.234700585092332</v>
+        <v>0.02088</v>
       </c>
       <c r="N14">
-        <v>0.234700585092332</v>
+        <v>0.06264</v>
       </c>
       <c r="O14">
-        <v>0.04757093056256453</v>
+        <v>0.00359773280803218</v>
       </c>
       <c r="P14">
-        <v>0.04757093056256453</v>
+        <v>0.00359773280803218</v>
       </c>
       <c r="Q14">
-        <v>13.11217087139053</v>
+        <v>0.41721583584</v>
       </c>
       <c r="R14">
-        <v>13.11217087139053</v>
+        <v>3.75494252256</v>
       </c>
       <c r="S14">
-        <v>0.02271762346032166</v>
+        <v>0.0005639621092040301</v>
       </c>
       <c r="T14">
-        <v>0.02271762346032166</v>
+        <v>0.0005639621092040301</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,60 +1340,60 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>55.8676531046233</v>
+        <v>19.98160133333333</v>
       </c>
       <c r="H15">
-        <v>55.8676531046233</v>
+        <v>59.944804</v>
       </c>
       <c r="I15">
-        <v>0.477552639640795</v>
+        <v>0.1567548618243542</v>
       </c>
       <c r="J15">
-        <v>0.477552639640795</v>
+        <v>0.1567548618243542</v>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>0.354061574177523</v>
+        <v>0.06922099999999999</v>
       </c>
       <c r="N15">
-        <v>0.354061574177523</v>
+        <v>0.207663</v>
       </c>
       <c r="O15">
-        <v>0.07176393937597186</v>
+        <v>0.0119271390184289</v>
       </c>
       <c r="P15">
-        <v>0.07176393937597186</v>
+        <v>0.0119271390184289</v>
       </c>
       <c r="Q15">
-        <v>19.7805892038267</v>
+        <v>1.383146425894666</v>
       </c>
       <c r="R15">
-        <v>19.7805892038267</v>
+        <v>12.448317833052</v>
       </c>
       <c r="S15">
-        <v>0.03427105868001736</v>
+        <v>0.001869637028793686</v>
       </c>
       <c r="T15">
-        <v>0.03427105868001736</v>
+        <v>0.001869637028793686</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1405,57 +1405,57 @@
         <v>25</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>55.8676531046233</v>
+        <v>19.98160133333333</v>
       </c>
       <c r="H16">
-        <v>55.8676531046233</v>
+        <v>59.944804</v>
       </c>
       <c r="I16">
-        <v>0.477552639640795</v>
+        <v>0.1567548618243542</v>
       </c>
       <c r="J16">
-        <v>0.477552639640795</v>
+        <v>0.1567548618243542</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.34493542277886</v>
+        <v>4.651264</v>
       </c>
       <c r="N16">
-        <v>4.34493542277886</v>
+        <v>13.953792</v>
       </c>
       <c r="O16">
-        <v>0.8806651300614636</v>
+        <v>0.8014370254606795</v>
       </c>
       <c r="P16">
-        <v>0.8806651300614636</v>
+        <v>0.8014370254606795</v>
       </c>
       <c r="Q16">
-        <v>242.7413449617991</v>
+        <v>92.93970294408534</v>
       </c>
       <c r="R16">
-        <v>242.7413449617991</v>
+        <v>836.457326496768</v>
       </c>
       <c r="S16">
-        <v>0.4205639575004561</v>
+        <v>0.1256291501870103</v>
       </c>
       <c r="T16">
-        <v>0.4205639575004561</v>
+        <v>0.1256291501870103</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1467,57 +1467,57 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>5.5648626757228</v>
+        <v>23.937254</v>
       </c>
       <c r="H17">
-        <v>5.5648626757228</v>
+        <v>71.811762</v>
       </c>
       <c r="I17">
-        <v>0.04756804183367494</v>
+        <v>0.1877867984967206</v>
       </c>
       <c r="J17">
-        <v>0.04756804183367494</v>
+        <v>0.1877867984967206</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.234700585092332</v>
+        <v>0.5527786666666666</v>
       </c>
       <c r="N17">
-        <v>0.234700585092332</v>
+        <v>1.658336</v>
       </c>
       <c r="O17">
-        <v>0.04757093056256453</v>
+        <v>0.09524664485857044</v>
       </c>
       <c r="P17">
-        <v>0.04757093056256453</v>
+        <v>0.09524664485857044</v>
       </c>
       <c r="Q17">
-        <v>1.306076525950621</v>
+        <v>13.23200334978133</v>
       </c>
       <c r="R17">
-        <v>1.306076525950621</v>
+        <v>119.088030148032</v>
       </c>
       <c r="S17">
-        <v>0.002262856015066915</v>
+        <v>0.01788606250554507</v>
       </c>
       <c r="T17">
-        <v>0.002262856015066915</v>
+        <v>0.01788606250554507</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1529,114 +1529,858 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>5.5648626757228</v>
+        <v>23.937254</v>
       </c>
       <c r="H18">
-        <v>5.5648626757228</v>
+        <v>71.811762</v>
       </c>
       <c r="I18">
-        <v>0.04756804183367494</v>
+        <v>0.1877867984967206</v>
       </c>
       <c r="J18">
-        <v>0.04756804183367494</v>
+        <v>0.1877867984967206</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.354061574177523</v>
+        <v>0.5095113333333333</v>
       </c>
       <c r="N18">
-        <v>0.354061574177523</v>
+        <v>1.528534</v>
       </c>
       <c r="O18">
-        <v>0.07176393937597186</v>
+        <v>0.08779145785428895</v>
       </c>
       <c r="P18">
-        <v>0.07176393937597186</v>
+        <v>0.08779145785428895</v>
       </c>
       <c r="Q18">
-        <v>1.970304039048157</v>
+        <v>12.19630220187867</v>
       </c>
       <c r="R18">
-        <v>1.970304039048157</v>
+        <v>109.766719816908</v>
       </c>
       <c r="S18">
-        <v>0.003413670070385542</v>
+        <v>0.01648607680581669</v>
       </c>
       <c r="T18">
-        <v>0.003413670070385542</v>
+        <v>0.01648607680581669</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>23.937254</v>
+      </c>
+      <c r="H19">
+        <v>71.811762</v>
+      </c>
+      <c r="I19">
+        <v>0.1877867984967206</v>
+      </c>
+      <c r="J19">
+        <v>0.1877867984967206</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.02088</v>
+      </c>
+      <c r="N19">
+        <v>0.06264</v>
+      </c>
+      <c r="O19">
+        <v>0.00359773280803218</v>
+      </c>
+      <c r="P19">
+        <v>0.00359773280803218</v>
+      </c>
+      <c r="Q19">
+        <v>0.49980986352</v>
+      </c>
+      <c r="R19">
+        <v>4.49828877168</v>
+      </c>
+      <c r="S19">
+        <v>0.0006756067258669795</v>
+      </c>
+      <c r="T19">
+        <v>0.0006756067258669795</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>23.937254</v>
+      </c>
+      <c r="H20">
+        <v>71.811762</v>
+      </c>
+      <c r="I20">
+        <v>0.1877867984967206</v>
+      </c>
+      <c r="J20">
+        <v>0.1877867984967206</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.06922099999999999</v>
+      </c>
+      <c r="N20">
+        <v>0.207663</v>
+      </c>
+      <c r="O20">
+        <v>0.0119271390184289</v>
+      </c>
+      <c r="P20">
+        <v>0.0119271390184289</v>
+      </c>
+      <c r="Q20">
+        <v>1.656960659134</v>
+      </c>
+      <c r="R20">
+        <v>14.912645932206</v>
+      </c>
+      <c r="S20">
+        <v>0.002239759251496082</v>
+      </c>
+      <c r="T20">
+        <v>0.002239759251496082</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
         <v>25</v>
       </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>23.937254</v>
+      </c>
+      <c r="H21">
+        <v>71.811762</v>
+      </c>
+      <c r="I21">
+        <v>0.1877867984967206</v>
+      </c>
+      <c r="J21">
+        <v>0.1877867984967206</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>4.651264</v>
+      </c>
+      <c r="N21">
+        <v>13.953792</v>
+      </c>
+      <c r="O21">
+        <v>0.8014370254606795</v>
+      </c>
+      <c r="P21">
+        <v>0.8014370254606795</v>
+      </c>
+      <c r="Q21">
+        <v>111.338487789056</v>
+      </c>
+      <c r="R21">
+        <v>1002.046390101504</v>
+      </c>
+      <c r="S21">
+        <v>0.1504992932079957</v>
+      </c>
+      <c r="T21">
+        <v>0.1504992932079957</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>58.46038166666667</v>
+      </c>
+      <c r="H22">
+        <v>175.381145</v>
+      </c>
+      <c r="I22">
+        <v>0.4586193517468508</v>
+      </c>
+      <c r="J22">
+        <v>0.4586193517468508</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.5527786666666666</v>
+      </c>
+      <c r="N22">
+        <v>1.658336</v>
+      </c>
+      <c r="O22">
+        <v>0.09524664485857044</v>
+      </c>
+      <c r="P22">
+        <v>0.09524664485857044</v>
+      </c>
+      <c r="Q22">
+        <v>32.31565183052444</v>
+      </c>
+      <c r="R22">
+        <v>290.84086647472</v>
+      </c>
+      <c r="S22">
+        <v>0.04368195452110009</v>
+      </c>
+      <c r="T22">
+        <v>0.04368195452110009</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>58.46038166666667</v>
+      </c>
+      <c r="H23">
+        <v>175.381145</v>
+      </c>
+      <c r="I23">
+        <v>0.4586193517468508</v>
+      </c>
+      <c r="J23">
+        <v>0.4586193517468508</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.5095113333333333</v>
+      </c>
+      <c r="N23">
+        <v>1.528534</v>
+      </c>
+      <c r="O23">
+        <v>0.08779145785428895</v>
+      </c>
+      <c r="P23">
+        <v>0.08779145785428895</v>
+      </c>
+      <c r="Q23">
+        <v>29.78622701015889</v>
+      </c>
+      <c r="R23">
+        <v>268.07604309143</v>
+      </c>
+      <c r="S23">
+        <v>0.04026286149004497</v>
+      </c>
+      <c r="T23">
+        <v>0.04026286149004497</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>58.46038166666667</v>
+      </c>
+      <c r="H24">
+        <v>175.381145</v>
+      </c>
+      <c r="I24">
+        <v>0.4586193517468508</v>
+      </c>
+      <c r="J24">
+        <v>0.4586193517468508</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.02088</v>
+      </c>
+      <c r="N24">
+        <v>0.06264</v>
+      </c>
+      <c r="O24">
+        <v>0.00359773280803218</v>
+      </c>
+      <c r="P24">
+        <v>0.00359773280803218</v>
+      </c>
+      <c r="Q24">
+        <v>1.2206527692</v>
+      </c>
+      <c r="R24">
+        <v>10.9858749228</v>
+      </c>
+      <c r="S24">
+        <v>0.001649989888178095</v>
+      </c>
+      <c r="T24">
+        <v>0.001649989888178095</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>58.46038166666667</v>
+      </c>
+      <c r="H25">
+        <v>175.381145</v>
+      </c>
+      <c r="I25">
+        <v>0.4586193517468508</v>
+      </c>
+      <c r="J25">
+        <v>0.4586193517468508</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M25">
+        <v>0.06922099999999999</v>
+      </c>
+      <c r="N25">
+        <v>0.207663</v>
+      </c>
+      <c r="O25">
+        <v>0.0119271390184289</v>
+      </c>
+      <c r="P25">
+        <v>0.0119271390184289</v>
+      </c>
+      <c r="Q25">
+        <v>4.046686079348333</v>
+      </c>
+      <c r="R25">
+        <v>36.420174714135</v>
+      </c>
+      <c r="S25">
+        <v>0.005470016764826433</v>
+      </c>
+      <c r="T25">
+        <v>0.005470016764826433</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
         <v>25</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>5.5648626757228</v>
-      </c>
-      <c r="H19">
-        <v>5.5648626757228</v>
-      </c>
-      <c r="I19">
-        <v>0.04756804183367494</v>
-      </c>
-      <c r="J19">
-        <v>0.04756804183367494</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>4.34493542277886</v>
-      </c>
-      <c r="N19">
-        <v>4.34493542277886</v>
-      </c>
-      <c r="O19">
-        <v>0.8806651300614636</v>
-      </c>
-      <c r="P19">
-        <v>0.8806651300614636</v>
-      </c>
-      <c r="Q19">
-        <v>24.17896896264794</v>
-      </c>
-      <c r="R19">
-        <v>24.17896896264794</v>
-      </c>
-      <c r="S19">
-        <v>0.04189151574822248</v>
-      </c>
-      <c r="T19">
-        <v>0.04189151574822248</v>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>58.46038166666667</v>
+      </c>
+      <c r="H26">
+        <v>175.381145</v>
+      </c>
+      <c r="I26">
+        <v>0.4586193517468508</v>
+      </c>
+      <c r="J26">
+        <v>0.4586193517468508</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>4.651264</v>
+      </c>
+      <c r="N26">
+        <v>13.953792</v>
+      </c>
+      <c r="O26">
+        <v>0.8014370254606795</v>
+      </c>
+      <c r="P26">
+        <v>0.8014370254606795</v>
+      </c>
+      <c r="Q26">
+        <v>271.9146686724267</v>
+      </c>
+      <c r="R26">
+        <v>2447.23201805184</v>
+      </c>
+      <c r="S26">
+        <v>0.3675545290827011</v>
+      </c>
+      <c r="T26">
+        <v>0.3675545290827011</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>5.987349666666667</v>
+      </c>
+      <c r="H27">
+        <v>17.962049</v>
+      </c>
+      <c r="I27">
+        <v>0.04697051823002506</v>
+      </c>
+      <c r="J27">
+        <v>0.04697051823002506</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>0.5527786666666666</v>
+      </c>
+      <c r="N27">
+        <v>1.658336</v>
+      </c>
+      <c r="O27">
+        <v>0.09524664485857044</v>
+      </c>
+      <c r="P27">
+        <v>0.09524664485857044</v>
+      </c>
+      <c r="Q27">
+        <v>3.309679165607111</v>
+      </c>
+      <c r="R27">
+        <v>29.787112490464</v>
+      </c>
+      <c r="S27">
+        <v>0.004473784268678206</v>
+      </c>
+      <c r="T27">
+        <v>0.004473784268678206</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>5.987349666666667</v>
+      </c>
+      <c r="H28">
+        <v>17.962049</v>
+      </c>
+      <c r="I28">
+        <v>0.04697051823002506</v>
+      </c>
+      <c r="J28">
+        <v>0.04697051823002506</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>0.5095113333333333</v>
+      </c>
+      <c r="N28">
+        <v>1.528534</v>
+      </c>
+      <c r="O28">
+        <v>0.08779145785428895</v>
+      </c>
+      <c r="P28">
+        <v>0.08779145785428895</v>
+      </c>
+      <c r="Q28">
+        <v>3.050622511796222</v>
+      </c>
+      <c r="R28">
+        <v>27.455602606166</v>
+      </c>
+      <c r="S28">
+        <v>0.004123610271585356</v>
+      </c>
+      <c r="T28">
+        <v>0.004123610271585356</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>5.987349666666667</v>
+      </c>
+      <c r="H29">
+        <v>17.962049</v>
+      </c>
+      <c r="I29">
+        <v>0.04697051823002506</v>
+      </c>
+      <c r="J29">
+        <v>0.04697051823002506</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M29">
+        <v>0.02088</v>
+      </c>
+      <c r="N29">
+        <v>0.06264</v>
+      </c>
+      <c r="O29">
+        <v>0.00359773280803218</v>
+      </c>
+      <c r="P29">
+        <v>0.00359773280803218</v>
+      </c>
+      <c r="Q29">
+        <v>0.12501586104</v>
+      </c>
+      <c r="R29">
+        <v>1.12514274936</v>
+      </c>
+      <c r="S29">
+        <v>0.0001689873744464347</v>
+      </c>
+      <c r="T29">
+        <v>0.0001689873744464347</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>5.987349666666667</v>
+      </c>
+      <c r="H30">
+        <v>17.962049</v>
+      </c>
+      <c r="I30">
+        <v>0.04697051823002506</v>
+      </c>
+      <c r="J30">
+        <v>0.04697051823002506</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M30">
+        <v>0.06922099999999999</v>
+      </c>
+      <c r="N30">
+        <v>0.207663</v>
+      </c>
+      <c r="O30">
+        <v>0.0119271390184289</v>
+      </c>
+      <c r="P30">
+        <v>0.0119271390184289</v>
+      </c>
+      <c r="Q30">
+        <v>0.4144503312763333</v>
+      </c>
+      <c r="R30">
+        <v>3.730052981487</v>
+      </c>
+      <c r="S30">
+        <v>0.000560223900697158</v>
+      </c>
+      <c r="T30">
+        <v>0.000560223900697158</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>5.987349666666667</v>
+      </c>
+      <c r="H31">
+        <v>17.962049</v>
+      </c>
+      <c r="I31">
+        <v>0.04697051823002506</v>
+      </c>
+      <c r="J31">
+        <v>0.04697051823002506</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>4.651264</v>
+      </c>
+      <c r="N31">
+        <v>13.953792</v>
+      </c>
+      <c r="O31">
+        <v>0.8014370254606795</v>
+      </c>
+      <c r="P31">
+        <v>0.8014370254606795</v>
+      </c>
+      <c r="Q31">
+        <v>27.84874395997867</v>
+      </c>
+      <c r="R31">
+        <v>250.638695639808</v>
+      </c>
+      <c r="S31">
+        <v>0.03764391241461791</v>
+      </c>
+      <c r="T31">
+        <v>0.03764391241461791</v>
       </c>
     </row>
   </sheetData>
